--- a/excel/Nilai Raport.xlsx
+++ b/excel/Nilai Raport.xlsx
@@ -203,10 +203,10 @@
     <t>Kelas</t>
   </si>
   <si>
-    <t>6A</t>
-  </si>
-  <si>
     <t>Tahun Pelajaran</t>
+  </si>
+  <si>
+    <t>5A</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -668,7 +668,7 @@
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -748,7 +748,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -767,7 +767,7 @@
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1">
       <c r="B5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="22">
         <v>2020</v>
